--- a/data/trans_camb/P14B35-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14B35-Edad-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9345879119318836</v>
+        <v>0.9483449405594013</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5043591916124888</v>
+        <v>0.5130838833351512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.677502904974466</v>
+        <v>4.958780642433867</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.71039770441141</v>
+        <v>3.798026436887522</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.955673960125209</v>
+        <v>3.216518683499235</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.62359919410668</v>
+        <v>13.13388608406333</v>
       </c>
     </row>
     <row r="7">
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.329861310966434</v>
+        <v>1.284651832990645</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4957327454147659</v>
+        <v>0.4959722523623205</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.44050486373169</v>
+        <v>5.21695355692621</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.841248361322618</v>
+        <v>3.742969409261628</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.328296003681925</v>
+        <v>2.296848661129039</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.44308646630393</v>
+        <v>10.45928974724666</v>
       </c>
     </row>
     <row r="13">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.401624964952161</v>
+        <v>1.409853229521204</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1249386085064165</v>
+        <v>0.1232432172918605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.848254272167512</v>
+        <v>3.874041847613432</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.825881397802727</v>
+        <v>3.834695111905047</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.230594309245221</v>
+        <v>1.241070072817473</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.109235799411614</v>
+        <v>6.812514785397511</v>
       </c>
     </row>
     <row r="19">
@@ -901,13 +901,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1719956517304771</v>
+        <v>0.173402880504679</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.784445591670661</v>
+        <v>1.790015747041473</v>
       </c>
     </row>
     <row r="24">
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.565617410045465</v>
+        <v>1.435755874187379</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9847838246396514</v>
+        <v>1.056874490431451</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.707301527840807</v>
+        <v>3.705556687011227</v>
       </c>
     </row>
     <row r="25">
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.3169858050267538</v>
+        <v>0.3169858050267539</v>
       </c>
     </row>
     <row r="29">
@@ -1003,7 +1003,7 @@
       <c r="C29" s="5" t="inlineStr"/>
       <c r="D29" s="5" t="inlineStr"/>
       <c r="E29" s="5" t="n">
-        <v>0.09215408138241218</v>
+        <v>0.0905441163460539</v>
       </c>
     </row>
     <row r="30">
@@ -1016,7 +1016,7 @@
       <c r="C30" s="5" t="inlineStr"/>
       <c r="D30" s="5" t="inlineStr"/>
       <c r="E30" s="5" t="n">
-        <v>0.8941416168106802</v>
+        <v>0.7696533519386062</v>
       </c>
     </row>
     <row r="31">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.9240369375185556</v>
+        <v>0.9214256397767618</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.2976919334980935</v>
+        <v>0.3163506210374268</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.625662940003529</v>
+        <v>2.65779752464241</v>
       </c>
     </row>
     <row r="48">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.628327980634115</v>
+        <v>1.667096135905205</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.7349480247965187</v>
+        <v>0.7730235636675035</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.940580678621171</v>
+        <v>3.941339884312332</v>
       </c>
     </row>
     <row r="49">
